--- a/goBus.xlsx
+++ b/goBus.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="266">
   <si>
     <t>Objectives</t>
   </si>
@@ -642,9 +642,6 @@
     <t>Making an application, everyone can use to book a seat in a bus to many cities</t>
   </si>
   <si>
-    <t>Login</t>
-  </si>
-  <si>
     <t xml:space="preserve">
 1- Click Book Now Page
 2- Click One Way||Round Trip
@@ -713,9 +710,6 @@
     <t>Check Sign Up with an excisted email</t>
   </si>
   <si>
-    <t>A message"This Mobile HaveAccount Before" but it shows"</t>
-  </si>
-  <si>
     <t>TC-ContinueWithFacebook-106</t>
   </si>
   <si>
@@ -961,13 +955,92 @@
   </si>
   <si>
     <t>T41</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Test type</t>
+  </si>
+  <si>
+    <t>Functional testing</t>
+  </si>
+  <si>
+    <t>Non-functional testing</t>
+  </si>
+  <si>
+    <t>Check Sign Up with an existed email</t>
+  </si>
+  <si>
+    <t>User shouldn't be able to Sign Up as he entered an existed email</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A message"This Mobile Have Account Before" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A message"This Mobile has an account before " but it displays This Mobile HaveAccount Befor" </t>
+  </si>
+  <si>
+    <t>The user is signed in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Displays A message"This coupon is expired. Try another one", so the user can try another code
+</t>
+  </si>
+  <si>
+    <t>Blocked</t>
+  </si>
+  <si>
+    <t>Check login when the user forgets his password</t>
+  </si>
+  <si>
+    <t>T50</t>
+  </si>
+  <si>
+    <t>password=""</t>
+  </si>
+  <si>
+    <t>User should click on forgot password button</t>
+  </si>
+  <si>
+    <t>No forgot password button</t>
+  </si>
+  <si>
+    <t>T51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1- Click More
+2- Click Stations
+3- Click a station</t>
+  </si>
+  <si>
+    <t>Displays Station information with arrivals and departures times and the bus location.
+When the page loads it should displays departure times first.</t>
+  </si>
+  <si>
+    <t>Displays arrival times first.</t>
+  </si>
+  <si>
+    <t>T52</t>
+  </si>
+  <si>
+    <t>Nothing</t>
+  </si>
+  <si>
+    <t>Displays user information in an user friendly form</t>
+  </si>
+  <si>
+    <t>displays user information in an inaccessible form</t>
+  </si>
+  <si>
+    <t>Displays Station information with arrival and departure times and the bus location.
+When the page loads it should displays departure times first.
+When buses time are off, it should displays a message "There aren't available buses now"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1000,20 +1073,37 @@
     <font>
       <b/>
       <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1041,6 +1131,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1171,7 +1285,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1179,21 +1293,12 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1218,47 +1323,77 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1266,6 +1401,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFCCFF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1540,1358 +1680,1690 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AP15"/>
+  <dimension ref="A1:AV15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AL1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AO9" sqref="A6:AP15"/>
+    <sheetView tabSelected="1" topLeftCell="AK4" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="AQ11" sqref="AQ11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.28515625" style="11" customWidth="1"/>
+    <col min="1" max="1" width="43.5703125" style="8" customWidth="1"/>
     <col min="2" max="2" width="46.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="34.140625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="36" style="8" customWidth="1"/>
-    <col min="5" max="6" width="32.140625" style="8" customWidth="1"/>
-    <col min="7" max="7" width="41.7109375" style="8" customWidth="1"/>
-    <col min="8" max="8" width="41.42578125" style="8" customWidth="1"/>
-    <col min="9" max="9" width="40.28515625" style="8" customWidth="1"/>
-    <col min="10" max="10" width="37.42578125" style="14" customWidth="1"/>
-    <col min="11" max="11" width="40.28515625" style="8" customWidth="1"/>
-    <col min="12" max="12" width="56.5703125" style="8" customWidth="1"/>
-    <col min="13" max="13" width="40.140625" style="8" customWidth="1"/>
-    <col min="14" max="14" width="37.7109375" style="8" customWidth="1"/>
-    <col min="15" max="16" width="22.28515625" style="8" customWidth="1"/>
-    <col min="17" max="18" width="43.5703125" style="8" customWidth="1"/>
-    <col min="19" max="19" width="53.42578125" style="8" customWidth="1"/>
-    <col min="20" max="21" width="61" style="8" customWidth="1"/>
-    <col min="22" max="22" width="53.42578125" style="8" customWidth="1"/>
-    <col min="23" max="24" width="61" style="8" customWidth="1"/>
-    <col min="25" max="25" width="45.7109375" style="8" customWidth="1"/>
-    <col min="26" max="26" width="53.42578125" style="8" customWidth="1"/>
-    <col min="27" max="27" width="45.28515625" style="8" customWidth="1"/>
-    <col min="28" max="28" width="51.7109375" style="8" customWidth="1"/>
-    <col min="29" max="29" width="49.42578125" style="8" customWidth="1"/>
-    <col min="30" max="30" width="43" style="8" customWidth="1"/>
-    <col min="31" max="33" width="61.7109375" style="8" customWidth="1"/>
-    <col min="34" max="34" width="50.5703125" style="8" customWidth="1"/>
-    <col min="35" max="35" width="53.42578125" style="8" customWidth="1"/>
-    <col min="36" max="37" width="35.7109375" style="8" customWidth="1"/>
-    <col min="38" max="38" width="29.85546875" style="8" customWidth="1"/>
-    <col min="39" max="39" width="48" style="8" customWidth="1"/>
-    <col min="40" max="40" width="30" style="8" customWidth="1"/>
-    <col min="41" max="41" width="31.42578125" style="8" customWidth="1"/>
-    <col min="42" max="42" width="62.85546875" style="8" customWidth="1"/>
-    <col min="43" max="16384" width="9.140625" style="9"/>
+    <col min="3" max="3" width="34.140625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="36" style="5" customWidth="1"/>
+    <col min="5" max="7" width="32.140625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="41.7109375" style="5" customWidth="1"/>
+    <col min="9" max="9" width="41.42578125" style="5" customWidth="1"/>
+    <col min="10" max="10" width="40.28515625" style="5" customWidth="1"/>
+    <col min="11" max="11" width="37.42578125" style="11" customWidth="1"/>
+    <col min="12" max="12" width="40.28515625" style="5" customWidth="1"/>
+    <col min="13" max="13" width="56.5703125" style="5" customWidth="1"/>
+    <col min="14" max="14" width="68.85546875" style="5" customWidth="1"/>
+    <col min="15" max="15" width="40.140625" style="5" customWidth="1"/>
+    <col min="16" max="16" width="37.7109375" style="5" customWidth="1"/>
+    <col min="17" max="18" width="22.28515625" style="5" customWidth="1"/>
+    <col min="19" max="20" width="43.5703125" style="5" customWidth="1"/>
+    <col min="21" max="21" width="53.42578125" style="5" customWidth="1"/>
+    <col min="22" max="23" width="61" style="5" customWidth="1"/>
+    <col min="24" max="24" width="53.42578125" style="5" customWidth="1"/>
+    <col min="25" max="26" width="61" style="5" customWidth="1"/>
+    <col min="27" max="27" width="45.7109375" style="5" customWidth="1"/>
+    <col min="28" max="28" width="53.42578125" style="5" customWidth="1"/>
+    <col min="29" max="29" width="45.28515625" style="5" customWidth="1"/>
+    <col min="30" max="30" width="63.85546875" style="5" customWidth="1"/>
+    <col min="31" max="31" width="49.42578125" style="5" customWidth="1"/>
+    <col min="32" max="33" width="50.5703125" style="5" customWidth="1"/>
+    <col min="34" max="36" width="61.7109375" style="5" customWidth="1"/>
+    <col min="37" max="37" width="50.5703125" style="5" customWidth="1"/>
+    <col min="38" max="38" width="53.42578125" style="5" customWidth="1"/>
+    <col min="39" max="40" width="35.7109375" style="5" customWidth="1"/>
+    <col min="41" max="41" width="29.85546875" style="5" customWidth="1"/>
+    <col min="42" max="42" width="54.42578125" style="5" customWidth="1"/>
+    <col min="43" max="43" width="30" style="5" customWidth="1"/>
+    <col min="44" max="44" width="31.42578125" style="5" customWidth="1"/>
+    <col min="45" max="45" width="50.42578125" style="5" customWidth="1"/>
+    <col min="46" max="46" width="55.28515625" style="5" customWidth="1"/>
+    <col min="47" max="48" width="62.85546875" style="5" customWidth="1"/>
+    <col min="49" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:48" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="J1" s="13"/>
+      <c r="K1" s="10"/>
     </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
+    <row r="2" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A2" s="7"/>
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:42" ht="63" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:48" ht="63" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>141</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:42" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="1" t="s">
+    <row r="4" spans="1:48" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="9"/>
+      <c r="V4" s="9"/>
+      <c r="W4" s="9"/>
+      <c r="X4" s="9"/>
+      <c r="Y4" s="9"/>
+      <c r="Z4" s="9"/>
+      <c r="AA4" s="9"/>
+      <c r="AB4" s="9"/>
+      <c r="AC4" s="9"/>
+      <c r="AD4" s="9"/>
+      <c r="AE4" s="9"/>
+      <c r="AF4" s="9"/>
+      <c r="AG4" s="9"/>
+      <c r="AH4" s="9"/>
+      <c r="AI4" s="9"/>
+      <c r="AJ4" s="9"/>
+      <c r="AK4" s="9"/>
+      <c r="AL4" s="9"/>
+      <c r="AM4" s="9"/>
+      <c r="AN4" s="9"/>
+      <c r="AO4" s="9"/>
+      <c r="AP4" s="9"/>
+      <c r="AQ4" s="9"/>
+      <c r="AR4" s="9"/>
+      <c r="AS4" s="9"/>
+      <c r="AT4" s="9"/>
+      <c r="AU4" s="9"/>
+      <c r="AV4" s="9"/>
+    </row>
+    <row r="5" spans="1:48" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="L5" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="M5" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="N5" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="O5" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="P5" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q5" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="R5" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="S5" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="T5" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="U5" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="V5" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="W5" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="X5" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y5" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z5" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="AA5" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB5" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC5" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="AD5" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="AE5" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="AF5" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="AG5" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="AH5" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="AI5" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="AJ5" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="AK5" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="AL5" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="AM5" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="AN5" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="AO5" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="AP5" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="AQ5" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="AR5" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="AS5" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="AT5" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="AU5" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="AV5" s="15" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="6" spans="1:48" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="M6" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="N6" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="O6" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="P6" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q6" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="R6" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="S6" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="T6" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="U6" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="V6" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="W6" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="X6" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y6" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z6" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA6" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB6" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC6" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD6" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE6" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="AF6" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="AG6" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="AH6" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="AI6" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ6" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="AK6" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="AL6" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="AM6" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="AN6" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="AO6" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="AP6" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="AQ6" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="AR6" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="AS6" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="AT6" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="AU6" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="AV6" s="15" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="7" spans="1:48" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="I7" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="J7" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="K7" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="L7" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="M7" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="N7" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="O7" s="15"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="T7" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="U7" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="V7" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="W7" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="X7" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y7" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="Z7" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA7" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="AB7" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="AC7" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="AD7" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="AE7" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="AF7" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="AG7" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="AH7" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="AI7" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="AJ7" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="AK7" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="AL7" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="AM7" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="AN7" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="AO7" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="AP7" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="AQ7" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="AR7" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="AS7" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="AT7" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="AU7" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="AV7" s="19" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="8" spans="1:48" s="13" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="G8" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="H8" s="21" t="s">
+        <v>191</v>
+      </c>
+      <c r="I8" s="22" t="s">
+        <v>191</v>
+      </c>
+      <c r="J8" s="22" t="s">
+        <v>191</v>
+      </c>
+      <c r="K8" s="21" t="s">
+        <v>191</v>
+      </c>
+      <c r="L8" s="22" t="s">
+        <v>191</v>
+      </c>
+      <c r="M8" s="22" t="s">
+        <v>191</v>
+      </c>
+      <c r="N8" s="22" t="s">
+        <v>191</v>
+      </c>
+      <c r="O8" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="P8" s="23" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q8" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="R8" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="S8" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="T8" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="U8" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="V8" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="W8" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="X8" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="Y8" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="Z8" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="AA8" s="23" t="s">
+        <v>206</v>
+      </c>
+      <c r="AB8" s="23" t="s">
+        <v>206</v>
+      </c>
+      <c r="AC8" s="23" t="s">
+        <v>206</v>
+      </c>
+      <c r="AD8" s="23" t="s">
+        <v>206</v>
+      </c>
+      <c r="AE8" s="23" t="s">
+        <v>206</v>
+      </c>
+      <c r="AF8" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="AG8" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="AH8" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="AI8" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="AJ8" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="AK8" s="23" t="s">
+        <v>206</v>
+      </c>
+      <c r="AL8" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="AM8" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="AN8" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="AO8" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="AP8" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="AQ8" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="AR8" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="AS8" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="AT8" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="AU8" s="23" t="s">
+        <v>213</v>
+      </c>
+      <c r="AV8" s="23" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="9" spans="1:48" s="13" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>193</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>194</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>196</v>
+      </c>
+      <c r="E9" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="F9" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="G9" s="27" t="s">
+        <v>253</v>
+      </c>
+      <c r="H9" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>202</v>
+      </c>
+      <c r="J9" s="26" t="s">
+        <v>204</v>
+      </c>
+      <c r="K9" s="27" t="s">
+        <v>205</v>
+      </c>
+      <c r="L9" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="M9" s="26" t="s">
+        <v>209</v>
+      </c>
+      <c r="N9" s="26" t="s">
+        <v>209</v>
+      </c>
+      <c r="O9" s="26" t="s">
+        <v>211</v>
+      </c>
+      <c r="P9" s="29" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q9" s="29" t="s">
+        <v>214</v>
+      </c>
+      <c r="R9" s="29" t="s">
+        <v>215</v>
+      </c>
+      <c r="S9" s="29" t="s">
+        <v>216</v>
+      </c>
+      <c r="T9" s="29" t="s">
+        <v>217</v>
+      </c>
+      <c r="U9" s="29" t="s">
+        <v>218</v>
+      </c>
+      <c r="V9" s="29" t="s">
+        <v>219</v>
+      </c>
+      <c r="W9" s="29" t="s">
+        <v>220</v>
+      </c>
+      <c r="X9" s="29" t="s">
+        <v>221</v>
+      </c>
+      <c r="Y9" s="29" t="s">
+        <v>222</v>
+      </c>
+      <c r="Z9" s="29" t="s">
+        <v>223</v>
+      </c>
+      <c r="AA9" s="29" t="s">
+        <v>224</v>
+      </c>
+      <c r="AB9" s="29" t="s">
+        <v>225</v>
+      </c>
+      <c r="AC9" s="29" t="s">
+        <v>226</v>
+      </c>
+      <c r="AD9" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="AE9" s="29" t="s">
+        <v>228</v>
+      </c>
+      <c r="AF9" s="29" t="s">
+        <v>229</v>
+      </c>
+      <c r="AG9" s="29" t="s">
+        <v>229</v>
+      </c>
+      <c r="AH9" s="29" t="s">
+        <v>230</v>
+      </c>
+      <c r="AI9" s="29" t="s">
+        <v>231</v>
+      </c>
+      <c r="AJ9" s="29" t="s">
+        <v>232</v>
+      </c>
+      <c r="AK9" s="29" t="s">
+        <v>233</v>
+      </c>
+      <c r="AL9" s="29" t="s">
+        <v>234</v>
+      </c>
+      <c r="AM9" s="29" t="s">
+        <v>235</v>
+      </c>
+      <c r="AN9" s="29" t="s">
+        <v>236</v>
+      </c>
+      <c r="AO9" s="29" t="s">
+        <v>237</v>
+      </c>
+      <c r="AP9" s="29" t="s">
+        <v>238</v>
+      </c>
+      <c r="AQ9" s="29" t="s">
+        <v>239</v>
+      </c>
+      <c r="AR9" s="29" t="s">
+        <v>240</v>
+      </c>
+      <c r="AS9" s="29" t="s">
+        <v>257</v>
+      </c>
+      <c r="AT9" s="29" t="s">
+        <v>261</v>
+      </c>
+      <c r="AU9" s="29" t="s">
+        <v>241</v>
+      </c>
+      <c r="AV9" s="29" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="10" spans="1:48" ht="204.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="J10" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="K10" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="L10" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="M10" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="N10" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="O10" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="P10" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q10" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="R10" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="S10" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="T10" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="U10" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="V10" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="W10" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="X10" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y10" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z10" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA10" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB10" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC10" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="AD10" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE10" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="AF10" s="15" t="s">
         <v>143</v>
       </c>
+      <c r="AG10" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="AH10" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="AI10" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ10" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="AK10" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="AL10" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="AM10" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="AN10" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="AO10" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="AP10" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="AQ10" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="AR10" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="AS10" s="15" t="s">
+        <v>258</v>
+      </c>
+      <c r="AT10" s="15" t="s">
+        <v>258</v>
+      </c>
+      <c r="AU10" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="AV10" s="15" t="s">
+        <v>137</v>
+      </c>
     </row>
-    <row r="5" spans="1:42" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
-      <c r="T5" s="12"/>
-      <c r="U5" s="12"/>
-      <c r="V5" s="12"/>
-      <c r="W5" s="12"/>
-      <c r="X5" s="12"/>
-      <c r="Y5" s="12"/>
-      <c r="Z5" s="12"/>
-      <c r="AA5" s="12"/>
-      <c r="AB5" s="12"/>
-      <c r="AC5" s="12"/>
-      <c r="AD5" s="12"/>
-      <c r="AE5" s="12"/>
-      <c r="AF5" s="12"/>
-      <c r="AG5" s="12"/>
-      <c r="AH5" s="12"/>
-      <c r="AI5" s="12"/>
-      <c r="AJ5" s="12"/>
-      <c r="AK5" s="12"/>
-      <c r="AL5" s="12"/>
-      <c r="AM5" s="12"/>
-      <c r="AN5" s="12"/>
-      <c r="AO5" s="12"/>
-      <c r="AP5" s="12"/>
+    <row r="11" spans="1:48" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A11" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="J11" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K11" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="L11" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="M11" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="N11" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="O11" s="19"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="19"/>
+      <c r="R11" s="19"/>
+      <c r="S11" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="T11" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="U11" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="V11" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="W11" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="X11" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y11" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z11" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA11" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB11" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC11" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD11" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE11" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF11" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="AG11" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="AH11" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI11" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ11" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK11" s="15"/>
+      <c r="AL11" s="15"/>
+      <c r="AM11" s="15"/>
+      <c r="AN11" s="15"/>
+      <c r="AO11" s="15"/>
+      <c r="AP11" s="15"/>
+      <c r="AQ11" s="15"/>
+      <c r="AR11" s="15"/>
+      <c r="AS11" s="15"/>
+      <c r="AT11" s="15"/>
+      <c r="AU11" s="15"/>
+      <c r="AV11" s="15" t="s">
+        <v>249</v>
+      </c>
     </row>
-    <row r="6" spans="1:42" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J6" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="P6" s="1" t="s">
+    <row r="12" spans="1:48" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="I12" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="J12" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="K12" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="L12" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="M12" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="N12" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="O12" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="P12" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q12" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="R12" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="Q6" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="S6" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="T6" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="U6" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="V6" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="W6" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="X6" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="Y6" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z6" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AA6" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="AB6" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="AC6" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AD6" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AE6" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="AF6" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="AG6" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="AH6" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AI6" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AJ6" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="AK6" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="AL6" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="AM6" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="AN6" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AO6" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="AP6" s="1" t="s">
-        <v>135</v>
+      <c r="S12" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="T12" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="U12" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="V12" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="W12" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="X12" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y12" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z12" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA12" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB12" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="AC12" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="AD12" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="AE12" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF12" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="AG12" s="15" t="s">
+        <v>250</v>
+      </c>
+      <c r="AH12" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="AI12" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ12" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="AK12" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="AL12" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="AM12" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="AN12" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="AO12" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="AP12" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="AQ12" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="AR12" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="AS12" s="15" t="s">
+        <v>259</v>
+      </c>
+      <c r="AT12" s="15" t="s">
+        <v>265</v>
+      </c>
+      <c r="AU12" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="AV12" s="15" t="s">
+        <v>263</v>
       </c>
     </row>
-    <row r="7" spans="1:42" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J7" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q7" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="R7" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="S7" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="T7" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="U7" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="V7" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="W7" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="X7" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y7" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z7" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AA7" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AB7" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AC7" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="AD7" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="AE7" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="AF7" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="AG7" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="AH7" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AI7" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="AJ7" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="AK7" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="AL7" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="AM7" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="AN7" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="AO7" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="AP7" s="1" t="s">
-        <v>136</v>
+    <row r="13" spans="1:48" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="I13" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="J13" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="K13" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="L13" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="M13" s="15" t="s">
+        <v>247</v>
+      </c>
+      <c r="N13" s="33" t="s">
+        <v>248</v>
+      </c>
+      <c r="O13" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="P13" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q13" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="R13" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="S13" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="T13" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="U13" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="V13" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="W13" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="X13" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y13" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z13" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA13" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB13" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC13" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD13" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="AE13" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF13" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG13" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH13" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI13" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="AJ13" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="AK13" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="AL13" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM13" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="AN13" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="AO13" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="AP13" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="AQ13" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="AR13" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="AS13" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="AT13" s="15" t="s">
+        <v>262</v>
+      </c>
+      <c r="AU13" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="AV13" s="15" t="s">
+        <v>264</v>
       </c>
     </row>
-    <row r="8" spans="1:42" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="J8" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="M8" s="1"/>
-      <c r="Q8" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="R8" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="S8" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="T8" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="U8" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="V8" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="W8" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="X8" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y8" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="Z8" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="AA8" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="AB8" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="AC8" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="AD8" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="AE8" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="AF8" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="AG8" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="AH8" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="AI8" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="AJ8" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="AK8" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="AL8" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="AM8" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="AN8" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="AO8" s="8" t="s">
+    <row r="14" spans="1:48" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="17" t="s">
         <v>181</v>
       </c>
-      <c r="AP8" s="8" t="s">
-        <v>182</v>
+      <c r="B14" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="I14" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="J14" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="K14" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="L14" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="M14" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="N14" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="O14" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="P14" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q14" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="R14" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="S14" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="T14" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="U14" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="V14" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="W14" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="X14" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y14" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z14" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA14" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB14" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC14" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD14" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE14" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF14" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG14" s="36" t="s">
+        <v>251</v>
+      </c>
+      <c r="AH14" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI14" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ14" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK14" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL14" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="AM14" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN14" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="AO14" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP14" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="AQ14" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR14" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="AS14" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="AT14" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="AU14" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="AV14" s="31" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:42" s="23" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="19" t="s">
-        <v>191</v>
-      </c>
-      <c r="B9" s="20" t="s">
-        <v>192</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>192</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>192</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>192</v>
-      </c>
-      <c r="F9" s="20" t="s">
-        <v>192</v>
-      </c>
-      <c r="G9" s="20" t="s">
-        <v>193</v>
-      </c>
-      <c r="H9" s="21" t="s">
-        <v>193</v>
-      </c>
-      <c r="I9" s="21" t="s">
-        <v>193</v>
-      </c>
-      <c r="J9" s="20" t="s">
-        <v>193</v>
-      </c>
-      <c r="K9" s="21" t="s">
-        <v>193</v>
-      </c>
-      <c r="L9" s="21" t="s">
-        <v>193</v>
-      </c>
-      <c r="M9" s="21" t="s">
-        <v>197</v>
-      </c>
-      <c r="N9" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="O9" s="22" t="s">
-        <v>203</v>
-      </c>
-      <c r="P9" s="22" t="s">
-        <v>203</v>
-      </c>
-      <c r="Q9" s="22" t="s">
-        <v>205</v>
-      </c>
-      <c r="R9" s="22" t="s">
-        <v>205</v>
-      </c>
-      <c r="S9" s="22" t="s">
-        <v>205</v>
-      </c>
-      <c r="T9" s="22" t="s">
-        <v>205</v>
-      </c>
-      <c r="U9" s="22" t="s">
-        <v>205</v>
-      </c>
-      <c r="V9" s="22" t="s">
-        <v>205</v>
-      </c>
-      <c r="W9" s="22" t="s">
-        <v>205</v>
-      </c>
-      <c r="X9" s="22" t="s">
-        <v>205</v>
-      </c>
-      <c r="Y9" s="22" t="s">
-        <v>208</v>
-      </c>
-      <c r="Z9" s="22" t="s">
-        <v>208</v>
-      </c>
-      <c r="AA9" s="22" t="s">
-        <v>208</v>
-      </c>
-      <c r="AB9" s="22" t="s">
-        <v>208</v>
-      </c>
-      <c r="AC9" s="22" t="s">
-        <v>208</v>
-      </c>
-      <c r="AD9" s="22" t="s">
-        <v>210</v>
-      </c>
-      <c r="AE9" s="22" t="s">
-        <v>210</v>
-      </c>
-      <c r="AF9" s="22" t="s">
-        <v>210</v>
-      </c>
-      <c r="AG9" s="22" t="s">
-        <v>212</v>
-      </c>
-      <c r="AH9" s="22" t="s">
-        <v>208</v>
-      </c>
-      <c r="AI9" s="22" t="s">
-        <v>210</v>
-      </c>
-      <c r="AJ9" s="22" t="s">
-        <v>212</v>
-      </c>
-      <c r="AK9" s="22" t="s">
-        <v>212</v>
-      </c>
-      <c r="AL9" s="22" t="s">
-        <v>212</v>
-      </c>
-      <c r="AM9" s="22" t="s">
-        <v>212</v>
-      </c>
-      <c r="AN9" s="22" t="s">
-        <v>212</v>
-      </c>
-      <c r="AO9" s="22" t="s">
-        <v>212</v>
-      </c>
-      <c r="AP9" s="22" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="10" spans="1:42" s="23" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="24" t="s">
-        <v>194</v>
-      </c>
-      <c r="B10" s="25" t="s">
-        <v>195</v>
-      </c>
-      <c r="C10" s="26" t="s">
-        <v>196</v>
-      </c>
-      <c r="D10" s="27" t="s">
-        <v>198</v>
-      </c>
-      <c r="E10" s="27" t="s">
-        <v>200</v>
-      </c>
-      <c r="F10" s="27" t="s">
-        <v>201</v>
-      </c>
-      <c r="G10" s="26" t="s">
-        <v>202</v>
-      </c>
-      <c r="H10" s="28" t="s">
-        <v>204</v>
-      </c>
-      <c r="I10" s="26" t="s">
-        <v>206</v>
-      </c>
-      <c r="J10" s="27" t="s">
-        <v>207</v>
-      </c>
-      <c r="K10" s="26" t="s">
-        <v>209</v>
-      </c>
-      <c r="L10" s="26" t="s">
-        <v>211</v>
-      </c>
-      <c r="M10" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="N10" s="29" t="s">
-        <v>214</v>
-      </c>
-      <c r="O10" s="29" t="s">
-        <v>216</v>
-      </c>
-      <c r="P10" s="29" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q10" s="29" t="s">
-        <v>218</v>
-      </c>
-      <c r="R10" s="29" t="s">
-        <v>219</v>
-      </c>
-      <c r="S10" s="29" t="s">
-        <v>220</v>
-      </c>
-      <c r="T10" s="29" t="s">
-        <v>221</v>
-      </c>
-      <c r="U10" s="29" t="s">
-        <v>222</v>
-      </c>
-      <c r="V10" s="29" t="s">
-        <v>223</v>
-      </c>
-      <c r="W10" s="29" t="s">
-        <v>224</v>
-      </c>
-      <c r="X10" s="29" t="s">
-        <v>225</v>
-      </c>
-      <c r="Y10" s="29" t="s">
-        <v>226</v>
-      </c>
-      <c r="Z10" s="29" t="s">
-        <v>227</v>
-      </c>
-      <c r="AA10" s="29" t="s">
-        <v>228</v>
-      </c>
-      <c r="AB10" s="29" t="s">
-        <v>229</v>
-      </c>
-      <c r="AC10" s="29" t="s">
-        <v>230</v>
-      </c>
-      <c r="AD10" s="29" t="s">
-        <v>231</v>
-      </c>
-      <c r="AE10" s="29" t="s">
-        <v>232</v>
-      </c>
-      <c r="AF10" s="29" t="s">
-        <v>233</v>
-      </c>
-      <c r="AG10" s="29" t="s">
-        <v>234</v>
-      </c>
-      <c r="AH10" s="29" t="s">
-        <v>235</v>
-      </c>
-      <c r="AI10" s="29" t="s">
-        <v>236</v>
-      </c>
-      <c r="AJ10" s="29" t="s">
-        <v>237</v>
-      </c>
-      <c r="AK10" s="29" t="s">
-        <v>238</v>
-      </c>
-      <c r="AL10" s="29" t="s">
-        <v>239</v>
-      </c>
-      <c r="AM10" s="29" t="s">
-        <v>240</v>
-      </c>
-      <c r="AN10" s="29" t="s">
-        <v>241</v>
-      </c>
-      <c r="AO10" s="29" t="s">
+    <row r="15" spans="1:48" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="17" t="s">
         <v>242</v>
       </c>
-      <c r="AP10" s="29" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="11" spans="1:42" ht="204.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J11" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L11" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="P11" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q11" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="R11" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="S11" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="T11" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="U11" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="V11" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="W11" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="X11" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y11" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z11" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AA11" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AB11" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AC11" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AD11" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="AE11" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="AF11" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="AG11" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AH11" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="AI11" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="AJ11" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="AK11" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AL11" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="AM11" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AN11" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="AO11" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="AP11" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="12" spans="1:42" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J12" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q12" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="R12" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="S12" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="T12" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="U12" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="V12" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="W12" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="X12" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y12" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="Z12" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="AA12" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="AB12" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="AC12" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="AD12" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AE12" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="AF12" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="AG12" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="AH12" s="1"/>
-      <c r="AI12" s="1"/>
-      <c r="AJ12" s="1"/>
-      <c r="AK12" s="1"/>
-      <c r="AL12" s="1"/>
-      <c r="AM12" s="1"/>
-      <c r="AN12" s="1"/>
-      <c r="AO12" s="1"/>
-      <c r="AP12" s="1"/>
-    </row>
-    <row r="13" spans="1:42" ht="63" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="J13" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="N13" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="O13" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="P13" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q13" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="R13" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="S13" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="T13" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="U13" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="V13" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="W13" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="X13" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="Y13" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="Z13" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="AA13" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="AB13" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="AC13" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="AD13" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="AE13" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="AF13" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="AG13" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="AH13" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="AI13" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="AJ13" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="AK13" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="AL13" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="AM13" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="AN13" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="AO13" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="AP13" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="14" spans="1:42" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="J14" s="16" t="s">
-        <v>152</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="O14" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="P14" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q14" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="R14" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="S14" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="T14" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="U14" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="V14" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="W14" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="X14" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y14" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z14" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA14" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AB14" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AC14" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD14" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE14" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF14" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AG14" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AH14" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AI14" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AJ14" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="AK14" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="AL14" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="AM14" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="AN14" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="AO14" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="AP14" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:42" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J15" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="M15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="O15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="P15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="R15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="S15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="T15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="U15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="V15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="W15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="X15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="AC15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AF15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AG15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AH15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AI15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="AJ15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AK15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="AL15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AM15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="AN15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AO15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AP15" s="1" t="s">
-        <v>5</v>
+      <c r="B15" s="35" t="s">
+        <v>243</v>
+      </c>
+      <c r="C15" s="35" t="s">
+        <v>243</v>
+      </c>
+      <c r="D15" s="35" t="s">
+        <v>243</v>
+      </c>
+      <c r="E15" s="35" t="s">
+        <v>243</v>
+      </c>
+      <c r="F15" s="35" t="s">
+        <v>243</v>
+      </c>
+      <c r="G15" s="35" t="s">
+        <v>243</v>
+      </c>
+      <c r="H15" s="35" t="s">
+        <v>243</v>
+      </c>
+      <c r="I15" s="35" t="s">
+        <v>243</v>
+      </c>
+      <c r="J15" s="35" t="s">
+        <v>243</v>
+      </c>
+      <c r="K15" s="35" t="s">
+        <v>243</v>
+      </c>
+      <c r="L15" s="35" t="s">
+        <v>243</v>
+      </c>
+      <c r="M15" s="35" t="s">
+        <v>243</v>
+      </c>
+      <c r="N15" s="34" t="s">
+        <v>244</v>
+      </c>
+      <c r="O15" s="35" t="s">
+        <v>243</v>
+      </c>
+      <c r="P15" s="35" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q15" s="35" t="s">
+        <v>243</v>
+      </c>
+      <c r="R15" s="35" t="s">
+        <v>243</v>
+      </c>
+      <c r="S15" s="35" t="s">
+        <v>243</v>
+      </c>
+      <c r="T15" s="35" t="s">
+        <v>243</v>
+      </c>
+      <c r="U15" s="35" t="s">
+        <v>243</v>
+      </c>
+      <c r="V15" s="35" t="s">
+        <v>243</v>
+      </c>
+      <c r="W15" s="35" t="s">
+        <v>243</v>
+      </c>
+      <c r="X15" s="35" t="s">
+        <v>243</v>
+      </c>
+      <c r="Y15" s="35" t="s">
+        <v>243</v>
+      </c>
+      <c r="Z15" s="35" t="s">
+        <v>243</v>
+      </c>
+      <c r="AA15" s="35" t="s">
+        <v>243</v>
+      </c>
+      <c r="AB15" s="35" t="s">
+        <v>243</v>
+      </c>
+      <c r="AC15" s="35" t="s">
+        <v>243</v>
+      </c>
+      <c r="AD15" s="35" t="s">
+        <v>243</v>
+      </c>
+      <c r="AE15" s="35" t="s">
+        <v>243</v>
+      </c>
+      <c r="AF15" s="35" t="s">
+        <v>243</v>
+      </c>
+      <c r="AG15" s="35" t="s">
+        <v>243</v>
+      </c>
+      <c r="AH15" s="35" t="s">
+        <v>243</v>
+      </c>
+      <c r="AI15" s="35" t="s">
+        <v>243</v>
+      </c>
+      <c r="AJ15" s="35" t="s">
+        <v>243</v>
+      </c>
+      <c r="AK15" s="35" t="s">
+        <v>243</v>
+      </c>
+      <c r="AL15" s="35" t="s">
+        <v>243</v>
+      </c>
+      <c r="AM15" s="35" t="s">
+        <v>243</v>
+      </c>
+      <c r="AN15" s="35" t="s">
+        <v>243</v>
+      </c>
+      <c r="AO15" s="35" t="s">
+        <v>243</v>
+      </c>
+      <c r="AP15" s="35" t="s">
+        <v>243</v>
+      </c>
+      <c r="AQ15" s="35" t="s">
+        <v>243</v>
+      </c>
+      <c r="AR15" s="35" t="s">
+        <v>243</v>
+      </c>
+      <c r="AS15" s="34" t="s">
+        <v>244</v>
+      </c>
+      <c r="AT15" s="35" t="s">
+        <v>243</v>
+      </c>
+      <c r="AU15" s="35" t="s">
+        <v>243</v>
+      </c>
+      <c r="AV15" s="34" t="s">
+        <v>244</v>
       </c>
     </row>
   </sheetData>

--- a/goBus.xlsx
+++ b/goBus.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="267">
   <si>
     <t>Objectives</t>
   </si>
@@ -1031,16 +1031,19 @@
     <t>displays user information in an inaccessible form</t>
   </si>
   <si>
+    <t>Issue</t>
+  </si>
+  <si>
     <t>Displays Station information with arrival and departure times and the bus location.
-When the page loads it should displays departure times first.
-When buses time are off, it should displays a message "There aren't available buses now"</t>
+When the page loads it should display departure times first.
+When buses time are off, it should display a message "There aren't available buses now"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1102,8 +1105,14 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1155,6 +1164,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF3300"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1285,7 +1300,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1380,9 +1395,6 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1393,6 +1405,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1403,6 +1424,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF3300"/>
       <color rgb="FFFFCCFF"/>
     </mruColors>
   </colors>
@@ -1680,10 +1702,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AV15"/>
+  <dimension ref="A1:AV16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AK4" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="AQ11" sqref="AQ11"/>
+    <sheetView tabSelected="1" topLeftCell="AA4" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="AA4" sqref="AA1:AA1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1723,7 +1745,7 @@
     <col min="43" max="43" width="30" style="5" customWidth="1"/>
     <col min="44" max="44" width="31.42578125" style="5" customWidth="1"/>
     <col min="45" max="45" width="50.42578125" style="5" customWidth="1"/>
-    <col min="46" max="46" width="55.28515625" style="5" customWidth="1"/>
+    <col min="46" max="46" width="65.7109375" style="5" customWidth="1"/>
     <col min="47" max="48" width="62.85546875" style="5" customWidth="1"/>
     <col min="49" max="16384" width="9.140625" style="6"/>
   </cols>
@@ -2919,7 +2941,7 @@
         <v>259</v>
       </c>
       <c r="AT12" s="15" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AU12" s="15" t="s">
         <v>138</v>
@@ -2968,7 +2990,7 @@
       <c r="M13" s="15" t="s">
         <v>247</v>
       </c>
-      <c r="N13" s="33" t="s">
+      <c r="N13" s="32" t="s">
         <v>248</v>
       </c>
       <c r="O13" s="15" t="s">
@@ -3093,29 +3115,27 @@
       <c r="F14" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G14" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="H14" s="31" t="s">
-        <v>21</v>
+      <c r="G14" s="38"/>
+      <c r="H14" s="15" t="s">
+        <v>5</v>
       </c>
       <c r="I14" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="J14" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="K14" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="L14" s="31" t="s">
-        <v>21</v>
+      <c r="J14" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="K14" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="L14" s="15" t="s">
+        <v>5</v>
       </c>
       <c r="M14" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="N14" s="31" t="s">
-        <v>21</v>
+      <c r="N14" s="15" t="s">
+        <v>5</v>
       </c>
       <c r="O14" s="31" t="s">
         <v>21</v>
@@ -3171,7 +3191,7 @@
       <c r="AF14" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="AG14" s="36" t="s">
+      <c r="AG14" s="35" t="s">
         <v>251</v>
       </c>
       <c r="AH14" s="15" t="s">
@@ -3198,8 +3218,8 @@
       <c r="AO14" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="AP14" s="31" t="s">
-        <v>21</v>
+      <c r="AP14" s="15" t="s">
+        <v>5</v>
       </c>
       <c r="AQ14" s="15" t="s">
         <v>5</v>
@@ -3207,163 +3227,233 @@
       <c r="AR14" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="AS14" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="AT14" s="31" t="s">
-        <v>21</v>
+      <c r="AS14" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="AT14" s="15" t="s">
+        <v>5</v>
       </c>
       <c r="AU14" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="AV14" s="31" t="s">
-        <v>21</v>
+      <c r="AV14" s="15" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:48" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
         <v>242</v>
       </c>
-      <c r="B15" s="35" t="s">
-        <v>243</v>
-      </c>
-      <c r="C15" s="35" t="s">
-        <v>243</v>
-      </c>
-      <c r="D15" s="35" t="s">
-        <v>243</v>
-      </c>
-      <c r="E15" s="35" t="s">
-        <v>243</v>
-      </c>
-      <c r="F15" s="35" t="s">
-        <v>243</v>
-      </c>
-      <c r="G15" s="35" t="s">
-        <v>243</v>
-      </c>
-      <c r="H15" s="35" t="s">
-        <v>243</v>
-      </c>
-      <c r="I15" s="35" t="s">
-        <v>243</v>
-      </c>
-      <c r="J15" s="35" t="s">
-        <v>243</v>
-      </c>
-      <c r="K15" s="35" t="s">
-        <v>243</v>
-      </c>
-      <c r="L15" s="35" t="s">
-        <v>243</v>
-      </c>
-      <c r="M15" s="35" t="s">
-        <v>243</v>
-      </c>
-      <c r="N15" s="34" t="s">
+      <c r="B15" s="34" t="s">
+        <v>243</v>
+      </c>
+      <c r="C15" s="34" t="s">
+        <v>243</v>
+      </c>
+      <c r="D15" s="34" t="s">
+        <v>243</v>
+      </c>
+      <c r="E15" s="34" t="s">
+        <v>243</v>
+      </c>
+      <c r="F15" s="34" t="s">
+        <v>243</v>
+      </c>
+      <c r="G15" s="34" t="s">
+        <v>243</v>
+      </c>
+      <c r="H15" s="34" t="s">
+        <v>243</v>
+      </c>
+      <c r="I15" s="34" t="s">
+        <v>243</v>
+      </c>
+      <c r="J15" s="34" t="s">
+        <v>243</v>
+      </c>
+      <c r="K15" s="34" t="s">
+        <v>243</v>
+      </c>
+      <c r="L15" s="34" t="s">
+        <v>243</v>
+      </c>
+      <c r="M15" s="34" t="s">
+        <v>243</v>
+      </c>
+      <c r="N15" s="33" t="s">
         <v>244</v>
       </c>
-      <c r="O15" s="35" t="s">
-        <v>243</v>
-      </c>
-      <c r="P15" s="35" t="s">
-        <v>243</v>
-      </c>
-      <c r="Q15" s="35" t="s">
-        <v>243</v>
-      </c>
-      <c r="R15" s="35" t="s">
-        <v>243</v>
-      </c>
-      <c r="S15" s="35" t="s">
-        <v>243</v>
-      </c>
-      <c r="T15" s="35" t="s">
-        <v>243</v>
-      </c>
-      <c r="U15" s="35" t="s">
-        <v>243</v>
-      </c>
-      <c r="V15" s="35" t="s">
-        <v>243</v>
-      </c>
-      <c r="W15" s="35" t="s">
-        <v>243</v>
-      </c>
-      <c r="X15" s="35" t="s">
-        <v>243</v>
-      </c>
-      <c r="Y15" s="35" t="s">
-        <v>243</v>
-      </c>
-      <c r="Z15" s="35" t="s">
-        <v>243</v>
-      </c>
-      <c r="AA15" s="35" t="s">
-        <v>243</v>
-      </c>
-      <c r="AB15" s="35" t="s">
-        <v>243</v>
-      </c>
-      <c r="AC15" s="35" t="s">
-        <v>243</v>
-      </c>
-      <c r="AD15" s="35" t="s">
-        <v>243</v>
-      </c>
-      <c r="AE15" s="35" t="s">
-        <v>243</v>
-      </c>
-      <c r="AF15" s="35" t="s">
-        <v>243</v>
-      </c>
-      <c r="AG15" s="35" t="s">
-        <v>243</v>
-      </c>
-      <c r="AH15" s="35" t="s">
-        <v>243</v>
-      </c>
-      <c r="AI15" s="35" t="s">
-        <v>243</v>
-      </c>
-      <c r="AJ15" s="35" t="s">
-        <v>243</v>
-      </c>
-      <c r="AK15" s="35" t="s">
-        <v>243</v>
-      </c>
-      <c r="AL15" s="35" t="s">
-        <v>243</v>
-      </c>
-      <c r="AM15" s="35" t="s">
-        <v>243</v>
-      </c>
-      <c r="AN15" s="35" t="s">
-        <v>243</v>
-      </c>
-      <c r="AO15" s="35" t="s">
-        <v>243</v>
-      </c>
-      <c r="AP15" s="35" t="s">
-        <v>243</v>
-      </c>
-      <c r="AQ15" s="35" t="s">
-        <v>243</v>
-      </c>
-      <c r="AR15" s="35" t="s">
-        <v>243</v>
-      </c>
-      <c r="AS15" s="34" t="s">
+      <c r="O15" s="34" t="s">
+        <v>243</v>
+      </c>
+      <c r="P15" s="34" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q15" s="34" t="s">
+        <v>243</v>
+      </c>
+      <c r="R15" s="34" t="s">
+        <v>243</v>
+      </c>
+      <c r="S15" s="34" t="s">
+        <v>243</v>
+      </c>
+      <c r="T15" s="34" t="s">
+        <v>243</v>
+      </c>
+      <c r="U15" s="34" t="s">
+        <v>243</v>
+      </c>
+      <c r="V15" s="34" t="s">
+        <v>243</v>
+      </c>
+      <c r="W15" s="34" t="s">
+        <v>243</v>
+      </c>
+      <c r="X15" s="34" t="s">
+        <v>243</v>
+      </c>
+      <c r="Y15" s="34" t="s">
+        <v>243</v>
+      </c>
+      <c r="Z15" s="34" t="s">
+        <v>243</v>
+      </c>
+      <c r="AA15" s="34" t="s">
+        <v>243</v>
+      </c>
+      <c r="AB15" s="34" t="s">
+        <v>243</v>
+      </c>
+      <c r="AC15" s="34" t="s">
+        <v>243</v>
+      </c>
+      <c r="AD15" s="34" t="s">
+        <v>243</v>
+      </c>
+      <c r="AE15" s="34" t="s">
+        <v>243</v>
+      </c>
+      <c r="AF15" s="34" t="s">
+        <v>243</v>
+      </c>
+      <c r="AG15" s="34" t="s">
+        <v>243</v>
+      </c>
+      <c r="AH15" s="34" t="s">
+        <v>243</v>
+      </c>
+      <c r="AI15" s="34" t="s">
+        <v>243</v>
+      </c>
+      <c r="AJ15" s="34" t="s">
+        <v>243</v>
+      </c>
+      <c r="AK15" s="34" t="s">
+        <v>243</v>
+      </c>
+      <c r="AL15" s="34" t="s">
+        <v>243</v>
+      </c>
+      <c r="AM15" s="34" t="s">
+        <v>243</v>
+      </c>
+      <c r="AN15" s="34" t="s">
+        <v>243</v>
+      </c>
+      <c r="AO15" s="34" t="s">
+        <v>243</v>
+      </c>
+      <c r="AP15" s="33" t="s">
         <v>244</v>
       </c>
-      <c r="AT15" s="35" t="s">
-        <v>243</v>
-      </c>
-      <c r="AU15" s="35" t="s">
-        <v>243</v>
-      </c>
-      <c r="AV15" s="34" t="s">
+      <c r="AQ15" s="34" t="s">
+        <v>243</v>
+      </c>
+      <c r="AR15" s="34" t="s">
+        <v>243</v>
+      </c>
+      <c r="AS15" s="33" t="s">
         <v>244</v>
+      </c>
+      <c r="AT15" s="33" t="s">
+        <v>244</v>
+      </c>
+      <c r="AU15" s="34" t="s">
+        <v>243</v>
+      </c>
+      <c r="AV15" s="33" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="16" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A16" s="36"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="37" t="s">
+        <v>265</v>
+      </c>
+      <c r="H16" s="37" t="s">
+        <v>265</v>
+      </c>
+      <c r="I16" s="19"/>
+      <c r="J16" s="37" t="s">
+        <v>265</v>
+      </c>
+      <c r="K16" s="37" t="s">
+        <v>265</v>
+      </c>
+      <c r="L16" s="37" t="s">
+        <v>265</v>
+      </c>
+      <c r="M16" s="19"/>
+      <c r="N16" s="37" t="s">
+        <v>265</v>
+      </c>
+      <c r="O16" s="19"/>
+      <c r="P16" s="19"/>
+      <c r="Q16" s="19"/>
+      <c r="R16" s="19"/>
+      <c r="S16" s="19"/>
+      <c r="T16" s="19"/>
+      <c r="U16" s="19"/>
+      <c r="V16" s="19"/>
+      <c r="W16" s="19"/>
+      <c r="X16" s="19"/>
+      <c r="Y16" s="19"/>
+      <c r="Z16" s="19"/>
+      <c r="AA16" s="19"/>
+      <c r="AB16" s="19"/>
+      <c r="AC16" s="19"/>
+      <c r="AD16" s="19"/>
+      <c r="AE16" s="19"/>
+      <c r="AF16" s="19"/>
+      <c r="AG16" s="19"/>
+      <c r="AH16" s="19"/>
+      <c r="AI16" s="19"/>
+      <c r="AJ16" s="19"/>
+      <c r="AK16" s="19"/>
+      <c r="AL16" s="19"/>
+      <c r="AM16" s="19"/>
+      <c r="AN16" s="19"/>
+      <c r="AO16" s="19"/>
+      <c r="AP16" s="37" t="s">
+        <v>265</v>
+      </c>
+      <c r="AQ16" s="19"/>
+      <c r="AR16" s="19"/>
+      <c r="AS16" s="37" t="s">
+        <v>265</v>
+      </c>
+      <c r="AT16" s="37" t="s">
+        <v>265</v>
+      </c>
+      <c r="AU16" s="19"/>
+      <c r="AV16" s="37" t="s">
+        <v>265</v>
       </c>
     </row>
   </sheetData>
